--- a/November'21/01.11.2021/Bank Statement October-2021.xlsx
+++ b/November'21/01.11.2021/Bank Statement October-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -741,15 +741,6 @@
     <t>64152</t>
   </si>
   <si>
-    <t>Closing Capital September''21</t>
-  </si>
-  <si>
-    <t>Opening Capital Oct''21</t>
-  </si>
-  <si>
-    <t>Salary Oct''21</t>
-  </si>
-  <si>
     <t>G.Total Oct''21</t>
   </si>
   <si>
@@ -759,18 +750,6 @@
     <t>BL DD Commission Oct''21</t>
   </si>
   <si>
-    <t>G.Total Profit Oct''21</t>
-  </si>
-  <si>
-    <t>Net Profit Oct''21</t>
-  </si>
-  <si>
-    <t>Boss(+) Oct''21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G.Total Capital Oct''21 </t>
-  </si>
-  <si>
     <t>Midul</t>
   </si>
   <si>
@@ -850,6 +829,27 @@
   </si>
   <si>
     <t>Aug+Sep2021</t>
+  </si>
+  <si>
+    <t>Opening Capital November''21</t>
+  </si>
+  <si>
+    <t>Closing Capital October''21</t>
+  </si>
+  <si>
+    <t>G.Total Profit November''21</t>
+  </si>
+  <si>
+    <t>Salary November''21</t>
+  </si>
+  <si>
+    <t>Net Profit November''21</t>
+  </si>
+  <si>
+    <t>Boss(+) November''21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.Total Capital November ''21 </t>
   </si>
 </sst>
 </file>
@@ -860,7 +860,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="61" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1277,6 +1277,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -2239,7 +2246,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="444">
+  <cellXfs count="450">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3050,9 +3057,6 @@
     <xf numFmtId="0" fontId="50" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3148,9 +3152,6 @@
     </xf>
     <xf numFmtId="2" fontId="50" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3238,302 +3239,326 @@
     <xf numFmtId="0" fontId="56" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="??&amp;O龡&amp;H?_x0008_??_x0007__x0001__x0001_" xfId="2"/>
@@ -4066,70 +4091,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="344"/>
-      <c r="G1" s="344"/>
-      <c r="H1" s="344"/>
-      <c r="I1" s="344"/>
-      <c r="J1" s="344"/>
-      <c r="K1" s="344"/>
-      <c r="L1" s="344"/>
-      <c r="M1" s="344"/>
-      <c r="N1" s="344"/>
-      <c r="O1" s="344"/>
-      <c r="P1" s="344"/>
-      <c r="Q1" s="344"/>
-      <c r="R1" s="344"/>
+      <c r="B1" s="357"/>
+      <c r="C1" s="357"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
+      <c r="N1" s="357"/>
+      <c r="O1" s="357"/>
+      <c r="P1" s="357"/>
+      <c r="Q1" s="357"/>
+      <c r="R1" s="357"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="345" t="s">
+      <c r="A2" s="358" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="345"/>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
-      <c r="H2" s="345"/>
-      <c r="I2" s="345"/>
-      <c r="J2" s="345"/>
-      <c r="K2" s="345"/>
-      <c r="L2" s="345"/>
-      <c r="M2" s="345"/>
-      <c r="N2" s="345"/>
-      <c r="O2" s="345"/>
-      <c r="P2" s="345"/>
-      <c r="Q2" s="345"/>
-      <c r="R2" s="345"/>
+      <c r="B2" s="358"/>
+      <c r="C2" s="358"/>
+      <c r="D2" s="358"/>
+      <c r="E2" s="358"/>
+      <c r="F2" s="358"/>
+      <c r="G2" s="358"/>
+      <c r="H2" s="358"/>
+      <c r="I2" s="358"/>
+      <c r="J2" s="358"/>
+      <c r="K2" s="358"/>
+      <c r="L2" s="358"/>
+      <c r="M2" s="358"/>
+      <c r="N2" s="358"/>
+      <c r="O2" s="358"/>
+      <c r="P2" s="358"/>
+      <c r="Q2" s="358"/>
+      <c r="R2" s="358"/>
     </row>
     <row r="3" spans="1:25" s="68" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="365" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="355"/>
-      <c r="C3" s="355"/>
-      <c r="D3" s="355"/>
-      <c r="E3" s="355"/>
-      <c r="F3" s="355"/>
-      <c r="G3" s="355"/>
-      <c r="H3" s="355"/>
-      <c r="I3" s="355"/>
-      <c r="J3" s="355"/>
-      <c r="K3" s="355"/>
-      <c r="L3" s="355"/>
-      <c r="M3" s="355"/>
-      <c r="N3" s="355"/>
-      <c r="O3" s="355"/>
-      <c r="P3" s="355"/>
-      <c r="Q3" s="355"/>
-      <c r="R3" s="356"/>
+      <c r="B3" s="366"/>
+      <c r="C3" s="366"/>
+      <c r="D3" s="366"/>
+      <c r="E3" s="366"/>
+      <c r="F3" s="366"/>
+      <c r="G3" s="366"/>
+      <c r="H3" s="366"/>
+      <c r="I3" s="366"/>
+      <c r="J3" s="366"/>
+      <c r="K3" s="366"/>
+      <c r="L3" s="366"/>
+      <c r="M3" s="366"/>
+      <c r="N3" s="366"/>
+      <c r="O3" s="366"/>
+      <c r="P3" s="366"/>
+      <c r="Q3" s="366"/>
+      <c r="R3" s="367"/>
       <c r="T3" s="69"/>
       <c r="U3" s="70"/>
       <c r="V3" s="70"/>
@@ -4138,55 +4163,55 @@
       <c r="Y3" s="71"/>
     </row>
     <row r="4" spans="1:25" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="346" t="s">
+      <c r="A4" s="359" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="348" t="s">
+      <c r="B4" s="361" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="348" t="s">
+      <c r="C4" s="361" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="342" t="s">
+      <c r="D4" s="355" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="342" t="s">
+      <c r="E4" s="355" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="342" t="s">
+      <c r="F4" s="355" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="342" t="s">
+      <c r="G4" s="355" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="342" t="s">
+      <c r="H4" s="355" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="342" t="s">
+      <c r="I4" s="355" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="342" t="s">
+      <c r="J4" s="355" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="357" t="s">
+      <c r="K4" s="368" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="350" t="s">
+      <c r="L4" s="347" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="359" t="s">
+      <c r="M4" s="349" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="361" t="s">
+      <c r="N4" s="351" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="363" t="s">
+      <c r="O4" s="353" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="350" t="s">
+      <c r="P4" s="347" t="s">
         <v>126</v>
       </c>
-      <c r="Q4" s="352" t="s">
+      <c r="Q4" s="363" t="s">
         <v>190</v>
       </c>
       <c r="R4" s="193" t="s">
@@ -4199,23 +4224,23 @@
       <c r="X4" s="70"/>
     </row>
     <row r="5" spans="1:25" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="347"/>
-      <c r="B5" s="349"/>
-      <c r="C5" s="349"/>
-      <c r="D5" s="343"/>
-      <c r="E5" s="343"/>
-      <c r="F5" s="343"/>
-      <c r="G5" s="343"/>
-      <c r="H5" s="343"/>
-      <c r="I5" s="343"/>
-      <c r="J5" s="343"/>
-      <c r="K5" s="358"/>
-      <c r="L5" s="351"/>
-      <c r="M5" s="360"/>
-      <c r="N5" s="362"/>
-      <c r="O5" s="364"/>
-      <c r="P5" s="351"/>
-      <c r="Q5" s="353"/>
+      <c r="A5" s="360"/>
+      <c r="B5" s="362"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="356"/>
+      <c r="E5" s="356"/>
+      <c r="F5" s="356"/>
+      <c r="G5" s="356"/>
+      <c r="H5" s="356"/>
+      <c r="I5" s="356"/>
+      <c r="J5" s="356"/>
+      <c r="K5" s="369"/>
+      <c r="L5" s="348"/>
+      <c r="M5" s="350"/>
+      <c r="N5" s="352"/>
+      <c r="O5" s="354"/>
+      <c r="P5" s="348"/>
+      <c r="Q5" s="364"/>
       <c r="R5" s="194" t="s">
         <v>29</v>
       </c>
@@ -4233,7 +4258,7 @@
       <c r="D6" s="204"/>
       <c r="E6" s="204"/>
       <c r="F6" s="204"/>
-      <c r="G6" s="312"/>
+      <c r="G6" s="310"/>
       <c r="H6" s="204"/>
       <c r="I6" s="204"/>
       <c r="J6" s="204"/>
@@ -4262,7 +4287,7 @@
       <c r="D7" s="204"/>
       <c r="E7" s="204"/>
       <c r="F7" s="204"/>
-      <c r="G7" s="312"/>
+      <c r="G7" s="310"/>
       <c r="H7" s="204"/>
       <c r="I7" s="204"/>
       <c r="J7" s="204"/>
@@ -4291,7 +4316,7 @@
       <c r="D8" s="207"/>
       <c r="E8" s="207"/>
       <c r="F8" s="207"/>
-      <c r="G8" s="313"/>
+      <c r="G8" s="311"/>
       <c r="H8" s="207"/>
       <c r="I8" s="207"/>
       <c r="J8" s="207"/>
@@ -4322,7 +4347,7 @@
       <c r="D9" s="207"/>
       <c r="E9" s="207"/>
       <c r="F9" s="207"/>
-      <c r="G9" s="313"/>
+      <c r="G9" s="311"/>
       <c r="H9" s="207"/>
       <c r="I9" s="207"/>
       <c r="J9" s="207"/>
@@ -4351,7 +4376,7 @@
       <c r="D10" s="207"/>
       <c r="E10" s="207"/>
       <c r="F10" s="207"/>
-      <c r="G10" s="313"/>
+      <c r="G10" s="311"/>
       <c r="H10" s="207"/>
       <c r="I10" s="207"/>
       <c r="J10" s="207"/>
@@ -4380,7 +4405,7 @@
       <c r="D11" s="207"/>
       <c r="E11" s="207"/>
       <c r="F11" s="207"/>
-      <c r="G11" s="313"/>
+      <c r="G11" s="311"/>
       <c r="H11" s="207"/>
       <c r="I11" s="207"/>
       <c r="J11" s="207"/>
@@ -4409,7 +4434,7 @@
       <c r="D12" s="207"/>
       <c r="E12" s="207"/>
       <c r="F12" s="207"/>
-      <c r="G12" s="313"/>
+      <c r="G12" s="311"/>
       <c r="H12" s="207"/>
       <c r="I12" s="207"/>
       <c r="J12" s="207"/>
@@ -4438,7 +4463,7 @@
       <c r="D13" s="207"/>
       <c r="E13" s="207"/>
       <c r="F13" s="207"/>
-      <c r="G13" s="313"/>
+      <c r="G13" s="311"/>
       <c r="H13" s="207"/>
       <c r="I13" s="207"/>
       <c r="J13" s="207"/>
@@ -4467,7 +4492,7 @@
       <c r="D14" s="207"/>
       <c r="E14" s="207"/>
       <c r="F14" s="207"/>
-      <c r="G14" s="313"/>
+      <c r="G14" s="311"/>
       <c r="H14" s="207"/>
       <c r="I14" s="207"/>
       <c r="J14" s="207"/>
@@ -4496,7 +4521,7 @@
       <c r="D15" s="207"/>
       <c r="E15" s="207"/>
       <c r="F15" s="207"/>
-      <c r="G15" s="313"/>
+      <c r="G15" s="311"/>
       <c r="H15" s="207"/>
       <c r="I15" s="207"/>
       <c r="J15" s="207"/>
@@ -4525,7 +4550,7 @@
       <c r="D16" s="207"/>
       <c r="E16" s="207"/>
       <c r="F16" s="207"/>
-      <c r="G16" s="313"/>
+      <c r="G16" s="311"/>
       <c r="H16" s="207"/>
       <c r="I16" s="207"/>
       <c r="J16" s="207"/>
@@ -4554,7 +4579,7 @@
       <c r="D17" s="207"/>
       <c r="E17" s="207"/>
       <c r="F17" s="207"/>
-      <c r="G17" s="313"/>
+      <c r="G17" s="311"/>
       <c r="H17" s="207"/>
       <c r="I17" s="207"/>
       <c r="J17" s="207"/>
@@ -4583,7 +4608,7 @@
       <c r="D18" s="207"/>
       <c r="E18" s="207"/>
       <c r="F18" s="207"/>
-      <c r="G18" s="313"/>
+      <c r="G18" s="311"/>
       <c r="H18" s="207"/>
       <c r="I18" s="207"/>
       <c r="J18" s="207"/>
@@ -4612,7 +4637,7 @@
       <c r="D19" s="207"/>
       <c r="E19" s="207"/>
       <c r="F19" s="207"/>
-      <c r="G19" s="313"/>
+      <c r="G19" s="311"/>
       <c r="H19" s="207"/>
       <c r="I19" s="207"/>
       <c r="J19" s="207"/>
@@ -4641,7 +4666,7 @@
       <c r="D20" s="207"/>
       <c r="E20" s="207"/>
       <c r="F20" s="207"/>
-      <c r="G20" s="313"/>
+      <c r="G20" s="311"/>
       <c r="H20" s="207"/>
       <c r="I20" s="207"/>
       <c r="J20" s="207"/>
@@ -4670,7 +4695,7 @@
       <c r="D21" s="207"/>
       <c r="E21" s="207"/>
       <c r="F21" s="207"/>
-      <c r="G21" s="313"/>
+      <c r="G21" s="311"/>
       <c r="H21" s="207"/>
       <c r="I21" s="207"/>
       <c r="J21" s="207"/>
@@ -4695,7 +4720,7 @@
       <c r="D22" s="207"/>
       <c r="E22" s="207"/>
       <c r="F22" s="207"/>
-      <c r="G22" s="313"/>
+      <c r="G22" s="311"/>
       <c r="H22" s="207"/>
       <c r="I22" s="207"/>
       <c r="J22" s="207"/>
@@ -4720,7 +4745,7 @@
       <c r="D23" s="207"/>
       <c r="E23" s="207"/>
       <c r="F23" s="207"/>
-      <c r="G23" s="313"/>
+      <c r="G23" s="311"/>
       <c r="H23" s="207"/>
       <c r="I23" s="207"/>
       <c r="J23" s="207"/>
@@ -4745,7 +4770,7 @@
       <c r="D24" s="207"/>
       <c r="E24" s="207"/>
       <c r="F24" s="207"/>
-      <c r="G24" s="313"/>
+      <c r="G24" s="311"/>
       <c r="H24" s="207"/>
       <c r="I24" s="207"/>
       <c r="J24" s="207"/>
@@ -4773,7 +4798,7 @@
       <c r="D25" s="207"/>
       <c r="E25" s="207"/>
       <c r="F25" s="207"/>
-      <c r="G25" s="313"/>
+      <c r="G25" s="311"/>
       <c r="H25" s="207"/>
       <c r="I25" s="207"/>
       <c r="J25" s="207"/>
@@ -4798,7 +4823,7 @@
       <c r="D26" s="207"/>
       <c r="E26" s="207"/>
       <c r="F26" s="207"/>
-      <c r="G26" s="313"/>
+      <c r="G26" s="311"/>
       <c r="H26" s="207"/>
       <c r="I26" s="207"/>
       <c r="J26" s="207"/>
@@ -4823,7 +4848,7 @@
       <c r="D27" s="207"/>
       <c r="E27" s="207"/>
       <c r="F27" s="207"/>
-      <c r="G27" s="313"/>
+      <c r="G27" s="311"/>
       <c r="H27" s="207"/>
       <c r="I27" s="207"/>
       <c r="J27" s="207"/>
@@ -4848,7 +4873,7 @@
       <c r="D28" s="207"/>
       <c r="E28" s="207"/>
       <c r="F28" s="207"/>
-      <c r="G28" s="313"/>
+      <c r="G28" s="311"/>
       <c r="H28" s="207"/>
       <c r="I28" s="207"/>
       <c r="J28" s="207"/>
@@ -4875,7 +4900,7 @@
       <c r="D29" s="207"/>
       <c r="E29" s="207"/>
       <c r="F29" s="207"/>
-      <c r="G29" s="313"/>
+      <c r="G29" s="311"/>
       <c r="H29" s="207"/>
       <c r="I29" s="207"/>
       <c r="J29" s="207"/>
@@ -4902,7 +4927,7 @@
       <c r="D30" s="207"/>
       <c r="E30" s="207"/>
       <c r="F30" s="207"/>
-      <c r="G30" s="313"/>
+      <c r="G30" s="311"/>
       <c r="H30" s="207"/>
       <c r="I30" s="207"/>
       <c r="J30" s="207"/>
@@ -4929,7 +4954,7 @@
       <c r="D31" s="207"/>
       <c r="E31" s="207"/>
       <c r="F31" s="207"/>
-      <c r="G31" s="313"/>
+      <c r="G31" s="311"/>
       <c r="H31" s="210"/>
       <c r="I31" s="207"/>
       <c r="J31" s="207"/>
@@ -4953,7 +4978,7 @@
       <c r="D32" s="207"/>
       <c r="E32" s="207"/>
       <c r="F32" s="207"/>
-      <c r="G32" s="313"/>
+      <c r="G32" s="311"/>
       <c r="H32" s="207"/>
       <c r="I32" s="207"/>
       <c r="J32" s="207"/>
@@ -4977,7 +5002,7 @@
       <c r="D33" s="207"/>
       <c r="E33" s="207"/>
       <c r="F33" s="207"/>
-      <c r="G33" s="313"/>
+      <c r="G33" s="311"/>
       <c r="H33" s="207"/>
       <c r="I33" s="207"/>
       <c r="J33" s="207"/>
@@ -5001,7 +5026,7 @@
       <c r="D34" s="207"/>
       <c r="E34" s="207"/>
       <c r="F34" s="207"/>
-      <c r="G34" s="313"/>
+      <c r="G34" s="311"/>
       <c r="H34" s="207"/>
       <c r="I34" s="207"/>
       <c r="J34" s="207"/>
@@ -5025,7 +5050,7 @@
       <c r="D35" s="207"/>
       <c r="E35" s="207"/>
       <c r="F35" s="207"/>
-      <c r="G35" s="313"/>
+      <c r="G35" s="311"/>
       <c r="H35" s="207"/>
       <c r="I35" s="207"/>
       <c r="J35" s="207"/>
@@ -5049,7 +5074,7 @@
       <c r="D36" s="212"/>
       <c r="E36" s="212"/>
       <c r="F36" s="212"/>
-      <c r="G36" s="314"/>
+      <c r="G36" s="312"/>
       <c r="H36" s="212"/>
       <c r="I36" s="212"/>
       <c r="J36" s="212"/>
@@ -7133,14 +7158,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7153,6 +7170,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7178,12 +7203,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="365" t="s">
+      <c r="A1" s="370" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="366"/>
-      <c r="C1" s="366"/>
-      <c r="D1" s="367"/>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="372"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -7198,12 +7223,12 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="368" t="s">
+      <c r="A2" s="373" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="368"/>
-      <c r="C2" s="368"/>
-      <c r="D2" s="368"/>
+      <c r="B2" s="373"/>
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
       <c r="E2" s="13"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
@@ -7273,7 +7298,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B5" s="34">
         <v>0</v>
@@ -9096,8 +9121,8 @@
   </sheetPr>
   <dimension ref="B1:M166"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9122,48 +9147,48 @@
       <c r="H1" s="223"/>
     </row>
     <row r="2" spans="2:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="369" t="s">
+      <c r="B2" s="374" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="370"/>
-      <c r="D2" s="370"/>
-      <c r="E2" s="370"/>
-      <c r="F2" s="371"/>
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375"/>
+      <c r="F2" s="376"/>
       <c r="H2" s="91"/>
       <c r="I2" s="91"/>
       <c r="J2" s="91"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
+      <c r="K2" s="333"/>
+      <c r="L2" s="333"/>
+      <c r="M2" s="333"/>
     </row>
     <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="372" t="s">
+      <c r="B3" s="377" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="373"/>
-      <c r="D3" s="373"/>
-      <c r="E3" s="373"/>
-      <c r="F3" s="374"/>
+      <c r="C3" s="378"/>
+      <c r="D3" s="378"/>
+      <c r="E3" s="378"/>
+      <c r="F3" s="379"/>
       <c r="H3" s="91"/>
       <c r="I3" s="91"/>
       <c r="J3" s="91"/>
       <c r="K3" s="133"/>
-      <c r="L3" s="337"/>
-      <c r="M3" s="337"/>
+      <c r="L3" s="335"/>
+      <c r="M3" s="335"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="375" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="376"/>
-      <c r="D4" s="376"/>
-      <c r="E4" s="376"/>
-      <c r="F4" s="377"/>
-      <c r="K4" s="379" t="s">
+      <c r="B4" s="380" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="381"/>
+      <c r="D4" s="381"/>
+      <c r="E4" s="381"/>
+      <c r="F4" s="382"/>
+      <c r="K4" s="384" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="380"/>
-      <c r="M4" s="381"/>
+      <c r="L4" s="385"/>
+      <c r="M4" s="386"/>
     </row>
     <row r="5" spans="2:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="253" t="s">
@@ -9191,17 +9216,17 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="301" t="s">
+      <c r="B6" s="300" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="281">
+      <c r="C6" s="280">
         <v>300000</v>
       </c>
-      <c r="D6" s="389"/>
-      <c r="E6" s="283" t="s">
+      <c r="D6" s="394"/>
+      <c r="E6" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="304">
+      <c r="F6" s="303">
         <v>300000</v>
       </c>
       <c r="G6" s="22"/>
@@ -9216,17 +9241,17 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="302" t="s">
+      <c r="B7" s="301" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="282">
+      <c r="C7" s="281">
         <v>25000</v>
       </c>
-      <c r="D7" s="389"/>
-      <c r="E7" s="283" t="s">
+      <c r="D7" s="394"/>
+      <c r="E7" s="282" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="304">
+      <c r="F7" s="303">
         <v>25000</v>
       </c>
       <c r="G7" s="22"/>
@@ -9241,17 +9266,17 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="305" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="303">
+      <c r="B8" s="304" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="302">
         <v>2000000</v>
       </c>
-      <c r="D8" s="389"/>
-      <c r="E8" s="285" t="s">
+      <c r="D8" s="394"/>
+      <c r="E8" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="311">
+      <c r="F8" s="442">
         <v>528446.32499999995</v>
       </c>
       <c r="G8" s="22"/>
@@ -9267,26 +9292,26 @@
     </row>
     <row r="9" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="277" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="290">
+        <v>229</v>
+      </c>
+      <c r="C9" s="289">
         <v>2000000</v>
       </c>
-      <c r="D9" s="389"/>
-      <c r="E9" s="286" t="s">
+      <c r="D9" s="394"/>
+      <c r="E9" s="285" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="297">
+      <c r="F9" s="296">
         <v>407731</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="K9" s="319" t="s">
+      <c r="K9" s="317" t="s">
         <v>115</v>
       </c>
-      <c r="L9" s="319" t="s">
+      <c r="L9" s="317" t="s">
         <v>116</v>
       </c>
-      <c r="M9" s="319">
+      <c r="M9" s="317">
         <v>8000</v>
       </c>
     </row>
@@ -9294,40 +9319,40 @@
       <c r="B10" s="277" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="291"/>
-      <c r="D10" s="389"/>
-      <c r="E10" s="286" t="s">
+      <c r="C10" s="290"/>
+      <c r="D10" s="394"/>
+      <c r="E10" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="297">
+      <c r="F10" s="296">
         <v>199277</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="K10" s="319" t="s">
+      <c r="K10" s="317" t="s">
         <v>172</v>
       </c>
-      <c r="L10" s="319" t="s">
+      <c r="L10" s="317" t="s">
         <v>177</v>
       </c>
-      <c r="M10" s="319">
+      <c r="M10" s="317">
         <v>1500</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="277" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="291"/>
-      <c r="D11" s="389"/>
-      <c r="E11" s="288" t="s">
+      <c r="B11" s="443" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="290"/>
+      <c r="D11" s="394"/>
+      <c r="E11" s="287" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="298">
+      <c r="F11" s="297">
         <v>176366</v>
       </c>
       <c r="G11" s="3"/>
       <c r="K11" s="95" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L11" s="125" t="s">
         <v>75</v>
@@ -9337,69 +9362,67 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="284" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="292">
+      <c r="B12" s="283" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="291">
         <f>C10+C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="389"/>
-      <c r="E12" s="287" t="s">
+      <c r="D12" s="394"/>
+      <c r="E12" s="286" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="299">
-        <v>701997.7350000001</v>
+      <c r="F12" s="298">
+        <v>701918.67500000005</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="K12" s="319" t="s">
+      <c r="K12" s="317" t="s">
         <v>125</v>
       </c>
-      <c r="L12" s="319" t="s">
+      <c r="L12" s="317" t="s">
         <v>127</v>
       </c>
-      <c r="M12" s="319">
+      <c r="M12" s="317">
         <v>750</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="277" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="291">
-        <v>79.06</v>
-      </c>
-      <c r="D13" s="389"/>
-      <c r="E13" s="287" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="290"/>
+      <c r="D13" s="394"/>
+      <c r="E13" s="286" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="306">
+      <c r="F13" s="305">
         <v>13739</v>
       </c>
       <c r="G13" s="19"/>
-      <c r="K13" s="319" t="s">
+      <c r="K13" s="317" t="s">
         <v>183</v>
       </c>
-      <c r="L13" s="319" t="s">
+      <c r="L13" s="317" t="s">
         <v>177</v>
       </c>
-      <c r="M13" s="319">
+      <c r="M13" s="317">
         <v>750</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="318" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="293"/>
-      <c r="D14" s="389"/>
-      <c r="E14" s="286" t="s">
+      <c r="B14" s="316" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="292"/>
+      <c r="D14" s="394"/>
+      <c r="E14" s="285" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="299"/>
+      <c r="F14" s="298"/>
       <c r="G14" s="19"/>
       <c r="K14" s="219" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L14" s="220" t="s">
         <v>118</v>
@@ -9409,18 +9432,18 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="279" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="294">
+      <c r="B15" s="278" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="293">
         <f>C13+C14</f>
-        <v>79.06</v>
-      </c>
-      <c r="D15" s="389"/>
-      <c r="E15" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="394"/>
+      <c r="E15" s="285" t="s">
         <v>175</v>
       </c>
-      <c r="F15" s="298"/>
+      <c r="F15" s="297"/>
       <c r="G15" s="92"/>
       <c r="H15" s="93"/>
       <c r="I15" s="252">
@@ -9438,19 +9461,19 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="278" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="295">
+    <row r="16" spans="2:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="B16" s="444" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="294">
         <f>C15-C12</f>
-        <v>79.06</v>
-      </c>
-      <c r="D16" s="389"/>
-      <c r="E16" s="288" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="394"/>
+      <c r="E16" s="287" t="s">
         <v>182</v>
       </c>
-      <c r="F16" s="298"/>
+      <c r="F16" s="297"/>
       <c r="G16" s="19"/>
       <c r="K16" s="101" t="s">
         <v>129</v>
@@ -9462,87 +9485,87 @@
         <v>3152</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="280" t="s">
+    <row r="17" spans="2:13" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="279" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="295">
+        <v>0</v>
+      </c>
+      <c r="D17" s="394"/>
+      <c r="E17" s="288"/>
+      <c r="F17" s="299"/>
+      <c r="G17" s="19"/>
+      <c r="K17" s="447" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" s="447" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="447">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="306" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="307">
+        <f>C9+C13-C12+C17</f>
+        <v>2000000</v>
+      </c>
+      <c r="D18" s="395"/>
+      <c r="E18" s="308" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="309">
+        <f>F8+F9+F10+F11+F12-F15+F16-F13</f>
+        <v>2000000</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="K18" s="448" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" s="448" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="296">
-        <v>0</v>
-      </c>
-      <c r="D17" s="389"/>
-      <c r="E17" s="289"/>
-      <c r="F17" s="300"/>
-      <c r="G17" s="19"/>
-      <c r="K17" s="319" t="s">
-        <v>130</v>
-      </c>
-      <c r="L17" s="319" t="s">
+      <c r="M18" s="448">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="391" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="392"/>
+      <c r="D19" s="392"/>
+      <c r="E19" s="392"/>
+      <c r="F19" s="393"/>
+      <c r="G19" s="19"/>
+      <c r="K19" s="448" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" s="448" t="s">
         <v>75</v>
       </c>
-      <c r="M17" s="319">
-        <v>5023</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="307" t="s">
+      <c r="M19" s="448">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="388"/>
+      <c r="C20" s="389"/>
+      <c r="D20" s="389"/>
+      <c r="E20" s="389"/>
+      <c r="F20" s="390"/>
+      <c r="G20" s="20"/>
+      <c r="K20" s="448" t="s">
         <v>208</v>
       </c>
-      <c r="C18" s="308">
-        <f>C9+C13-C12+C17</f>
-        <v>2000079.06</v>
-      </c>
-      <c r="D18" s="390"/>
-      <c r="E18" s="309" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="310">
-        <f>F8+F9+F10+F11+F12-F15+F16-F13</f>
-        <v>2000079.06</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="K18" s="322" t="s">
-        <v>213</v>
-      </c>
-      <c r="L18" s="322" t="s">
-        <v>214</v>
-      </c>
-      <c r="M18" s="322">
-        <v>2437</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="386" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="387"/>
-      <c r="D19" s="387"/>
-      <c r="E19" s="387"/>
-      <c r="F19" s="388"/>
-      <c r="G19" s="19"/>
-      <c r="K19" s="322" t="s">
-        <v>189</v>
-      </c>
-      <c r="L19" s="322" t="s">
-        <v>75</v>
-      </c>
-      <c r="M19" s="322">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="383"/>
-      <c r="C20" s="384"/>
-      <c r="D20" s="384"/>
-      <c r="E20" s="384"/>
-      <c r="F20" s="385"/>
-      <c r="G20" s="20"/>
-      <c r="K20" s="322" t="s">
-        <v>215</v>
-      </c>
-      <c r="L20" s="322" t="s">
-        <v>214</v>
-      </c>
-      <c r="M20" s="322">
+      <c r="L20" s="448" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" s="448">
         <v>1167</v>
       </c>
     </row>
@@ -9551,13 +9574,13 @@
       <c r="D21" s="21"/>
       <c r="E21" s="13"/>
       <c r="G21" s="20"/>
-      <c r="K21" s="101" t="s">
+      <c r="K21" s="445" t="s">
         <v>191</v>
       </c>
-      <c r="L21" s="126" t="s">
+      <c r="L21" s="446" t="s">
         <v>75</v>
       </c>
-      <c r="M21" s="126">
+      <c r="M21" s="446">
         <v>2546</v>
       </c>
     </row>
@@ -9566,13 +9589,13 @@
       <c r="D22" s="21"/>
       <c r="E22" s="13"/>
       <c r="G22" s="20"/>
-      <c r="K22" s="322" t="s">
+      <c r="K22" s="448" t="s">
         <v>194</v>
       </c>
-      <c r="L22" s="322" t="s">
+      <c r="L22" s="448" t="s">
         <v>75</v>
       </c>
-      <c r="M22" s="322">
+      <c r="M22" s="448">
         <v>2673</v>
       </c>
     </row>
@@ -9581,13 +9604,13 @@
       <c r="D23" s="21"/>
       <c r="E23" s="13"/>
       <c r="G23" s="20"/>
-      <c r="K23" s="322" t="s">
-        <v>225</v>
-      </c>
-      <c r="L23" s="322" t="s">
+      <c r="K23" s="448" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" s="448" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="322">
+      <c r="M23" s="448">
         <v>252</v>
       </c>
     </row>
@@ -9596,46 +9619,40 @@
       <c r="D24" s="21"/>
       <c r="E24" s="13"/>
       <c r="G24" s="20"/>
-      <c r="K24" s="322" t="s">
-        <v>231</v>
-      </c>
-      <c r="L24" s="322" t="s">
-        <v>230</v>
-      </c>
-      <c r="M24" s="322">
+      <c r="K24" s="448" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" s="448" t="s">
+        <v>223</v>
+      </c>
+      <c r="M24" s="448">
         <v>82130</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="8">
-        <v>545</v>
-      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="21"/>
       <c r="G25" s="20"/>
-      <c r="K25" s="442" t="s">
-        <v>211</v>
-      </c>
-      <c r="L25" s="322" t="s">
-        <v>212</v>
-      </c>
-      <c r="M25" s="322">
+      <c r="K25" s="449" t="s">
+        <v>204</v>
+      </c>
+      <c r="L25" s="448" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" s="448">
         <v>3600</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="8">
-        <v>479</v>
-      </c>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="8"/>
       <c r="D26" s="21"/>
       <c r="G26" s="20"/>
-      <c r="K26" s="443"/>
-      <c r="L26" s="443"/>
-      <c r="M26" s="443"/>
+      <c r="K26" s="346"/>
+      <c r="L26" s="346"/>
+      <c r="M26" s="346"/>
     </row>
     <row r="27" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="8">
-        <v>377</v>
-      </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="21"/>
       <c r="G27" s="20"/>
       <c r="K27" s="101"/>
@@ -9643,10 +9660,6 @@
       <c r="M27" s="126"/>
     </row>
     <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="2">
-        <f>SUM(C25:C27)</f>
-        <v>1401</v>
-      </c>
       <c r="D28" s="21"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
@@ -9656,171 +9669,150 @@
       <c r="M28" s="126"/>
     </row>
     <row r="29" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="2">
-        <v>32</v>
-      </c>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
       <c r="F29" s="16" t="s">
         <v>109</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="K29" s="322"/>
-      <c r="L29" s="322"/>
-      <c r="M29" s="322"/>
+      <c r="K29" s="320"/>
+      <c r="L29" s="320"/>
+      <c r="M29" s="320"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
-        <v>939</v>
-      </c>
-      <c r="C30" s="2">
-        <f>C28-C29</f>
-        <v>1369</v>
-      </c>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
-      <c r="K30" s="442"/>
-      <c r="L30" s="322"/>
-      <c r="M30" s="322"/>
+      <c r="K30" s="345"/>
+      <c r="L30" s="320"/>
+      <c r="M30" s="320"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="2">
-        <f>C30*191</f>
-        <v>261479</v>
-      </c>
       <c r="D31" s="14"/>
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
-      <c r="K31" s="442"/>
-      <c r="L31" s="322"/>
-      <c r="M31" s="322"/>
+      <c r="K31" s="345"/>
+      <c r="L31" s="320"/>
+      <c r="M31" s="320"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="94"/>
-      <c r="C32" s="8">
-        <v>179349</v>
-      </c>
+      <c r="C32" s="8"/>
       <c r="D32" s="21"/>
       <c r="E32" s="11"/>
       <c r="F32" s="7"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="322"/>
-      <c r="L32" s="322"/>
-      <c r="M32" s="322"/>
+      <c r="K32" s="320"/>
+      <c r="L32" s="320"/>
+      <c r="M32" s="320"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="94">
-        <v>430</v>
-      </c>
-      <c r="C33" s="8">
-        <f>C31-C32</f>
-        <v>82130</v>
-      </c>
+      <c r="B33" s="94"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="21"/>
       <c r="E33" s="7"/>
       <c r="F33" s="10"/>
-      <c r="K33" s="319"/>
-      <c r="L33" s="319"/>
-      <c r="M33" s="319"/>
+      <c r="K33" s="317"/>
+      <c r="L33" s="317"/>
+      <c r="M33" s="317"/>
     </row>
     <row r="34" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" s="8"/>
       <c r="D34" s="21"/>
       <c r="E34" s="12"/>
       <c r="F34" s="8"/>
-      <c r="K34" s="319"/>
-      <c r="L34" s="319"/>
-      <c r="M34" s="319"/>
+      <c r="K34" s="317"/>
+      <c r="L34" s="317"/>
+      <c r="M34" s="317"/>
     </row>
     <row r="35" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="8"/>
       <c r="D35" s="21"/>
       <c r="E35" s="7"/>
       <c r="F35" s="10"/>
-      <c r="K35" s="319"/>
-      <c r="L35" s="319"/>
-      <c r="M35" s="319"/>
+      <c r="K35" s="317"/>
+      <c r="L35" s="317"/>
+      <c r="M35" s="317"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
       <c r="D36" s="21"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="K36" s="319"/>
-      <c r="L36" s="319"/>
-      <c r="M36" s="319"/>
+      <c r="K36" s="317"/>
+      <c r="L36" s="317"/>
+      <c r="M36" s="317"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" s="8"/>
       <c r="D37" s="21"/>
       <c r="E37" s="7"/>
       <c r="F37" s="10"/>
-      <c r="K37" s="319"/>
-      <c r="L37" s="319"/>
-      <c r="M37" s="319"/>
+      <c r="K37" s="317"/>
+      <c r="L37" s="317"/>
+      <c r="M37" s="317"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K38" s="382" t="s">
+      <c r="K38" s="387" t="s">
         <v>28</v>
       </c>
-      <c r="L38" s="382"/>
-      <c r="M38" s="341">
+      <c r="L38" s="387"/>
+      <c r="M38" s="339">
         <f>SUM(M6:M37)</f>
         <v>176366</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K39" s="339"/>
-      <c r="L39" s="340"/>
-      <c r="M39" s="339"/>
+      <c r="K39" s="337"/>
+      <c r="L39" s="338"/>
+      <c r="M39" s="337"/>
     </row>
     <row r="40" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K40" s="338"/>
-      <c r="L40" s="338"/>
-      <c r="M40" s="338"/>
+      <c r="K40" s="336"/>
+      <c r="L40" s="336"/>
+      <c r="M40" s="336"/>
     </row>
     <row r="41" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K41" s="338"/>
-      <c r="L41" s="338"/>
-      <c r="M41" s="338"/>
+      <c r="K41" s="336"/>
+      <c r="L41" s="336"/>
+      <c r="M41" s="336"/>
     </row>
     <row r="42" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K42" s="338"/>
-      <c r="L42" s="338"/>
-      <c r="M42" s="338"/>
+      <c r="K42" s="336"/>
+      <c r="L42" s="336"/>
+      <c r="M42" s="336"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K43" s="338"/>
-      <c r="L43" s="338"/>
-      <c r="M43" s="338"/>
+      <c r="K43" s="336"/>
+      <c r="L43" s="336"/>
+      <c r="M43" s="336"/>
     </row>
     <row r="44" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K44" s="338"/>
-      <c r="L44" s="338"/>
-      <c r="M44" s="338"/>
+      <c r="K44" s="336"/>
+      <c r="L44" s="336"/>
+      <c r="M44" s="336"/>
     </row>
     <row r="45" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K45" s="338"/>
-      <c r="L45" s="338"/>
-      <c r="M45" s="338"/>
+      <c r="K45" s="336"/>
+      <c r="L45" s="336"/>
+      <c r="M45" s="336"/>
     </row>
     <row r="46" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K46" s="338"/>
-      <c r="L46" s="338"/>
-      <c r="M46" s="338"/>
+      <c r="K46" s="336"/>
+      <c r="L46" s="336"/>
+      <c r="M46" s="336"/>
     </row>
     <row r="47" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K47" s="338"/>
-      <c r="L47" s="338"/>
-      <c r="M47" s="338"/>
+      <c r="K47" s="336"/>
+      <c r="L47" s="336"/>
+      <c r="M47" s="336"/>
     </row>
     <row r="48" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K48" s="378"/>
-      <c r="L48" s="378"/>
-      <c r="M48" s="338"/>
+      <c r="K48" s="383"/>
+      <c r="L48" s="383"/>
+      <c r="M48" s="336"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
@@ -10886,119 +10878,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="397" t="s">
+      <c r="A1" s="402" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="397"/>
-      <c r="J1" s="397"/>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
-      <c r="N1" s="397"/>
-      <c r="O1" s="397"/>
-      <c r="P1" s="397"/>
-      <c r="Q1" s="397"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="402"/>
+      <c r="H1" s="402"/>
+      <c r="I1" s="402"/>
+      <c r="J1" s="402"/>
+      <c r="K1" s="402"/>
+      <c r="L1" s="402"/>
+      <c r="M1" s="402"/>
+      <c r="N1" s="402"/>
+      <c r="O1" s="402"/>
+      <c r="P1" s="402"/>
+      <c r="Q1" s="402"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="397"/>
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="397"/>
-      <c r="F2" s="397"/>
-      <c r="G2" s="397"/>
-      <c r="H2" s="397"/>
-      <c r="I2" s="397"/>
-      <c r="J2" s="397"/>
-      <c r="K2" s="397"/>
-      <c r="L2" s="397"/>
-      <c r="M2" s="397"/>
-      <c r="N2" s="397"/>
-      <c r="O2" s="397"/>
-      <c r="P2" s="397"/>
-      <c r="Q2" s="397"/>
+      <c r="A2" s="402"/>
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="402"/>
+      <c r="E2" s="402"/>
+      <c r="F2" s="402"/>
+      <c r="G2" s="402"/>
+      <c r="H2" s="402"/>
+      <c r="I2" s="402"/>
+      <c r="J2" s="402"/>
+      <c r="K2" s="402"/>
+      <c r="L2" s="402"/>
+      <c r="M2" s="402"/>
+      <c r="N2" s="402"/>
+      <c r="O2" s="402"/>
+      <c r="P2" s="402"/>
+      <c r="Q2" s="402"/>
     </row>
     <row r="3" spans="1:22" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="398" t="s">
+      <c r="A3" s="403" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="398"/>
-      <c r="C3" s="398"/>
-      <c r="D3" s="398"/>
-      <c r="E3" s="398"/>
-      <c r="F3" s="398"/>
-      <c r="G3" s="398"/>
-      <c r="H3" s="398"/>
-      <c r="I3" s="398"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
-      <c r="N3" s="398"/>
-      <c r="O3" s="398"/>
-      <c r="P3" s="398"/>
-      <c r="Q3" s="398"/>
+      <c r="B3" s="403"/>
+      <c r="C3" s="403"/>
+      <c r="D3" s="403"/>
+      <c r="E3" s="403"/>
+      <c r="F3" s="403"/>
+      <c r="G3" s="403"/>
+      <c r="H3" s="403"/>
+      <c r="I3" s="403"/>
+      <c r="J3" s="403"/>
+      <c r="K3" s="403"/>
+      <c r="L3" s="403"/>
+      <c r="M3" s="403"/>
+      <c r="N3" s="403"/>
+      <c r="O3" s="403"/>
+      <c r="P3" s="403"/>
+      <c r="Q3" s="403"/>
     </row>
     <row r="4" spans="1:22" s="97" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="399" t="s">
+      <c r="A4" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="399"/>
-      <c r="C4" s="399"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
-      <c r="F4" s="399"/>
-      <c r="G4" s="399"/>
-      <c r="H4" s="399"/>
-      <c r="I4" s="399"/>
-      <c r="J4" s="399"/>
-      <c r="K4" s="399"/>
-      <c r="L4" s="399"/>
-      <c r="M4" s="399"/>
-      <c r="N4" s="399"/>
-      <c r="O4" s="399"/>
-      <c r="P4" s="399"/>
-      <c r="Q4" s="399"/>
+      <c r="B4" s="404"/>
+      <c r="C4" s="404"/>
+      <c r="D4" s="404"/>
+      <c r="E4" s="404"/>
+      <c r="F4" s="404"/>
+      <c r="G4" s="404"/>
+      <c r="H4" s="404"/>
+      <c r="I4" s="404"/>
+      <c r="J4" s="404"/>
+      <c r="K4" s="404"/>
+      <c r="L4" s="404"/>
+      <c r="M4" s="404"/>
+      <c r="N4" s="404"/>
+      <c r="O4" s="404"/>
+      <c r="P4" s="404"/>
+      <c r="Q4" s="404"/>
       <c r="U4" s="97">
         <v>2455</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="97" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="404" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="405"/>
-      <c r="C5" s="406"/>
+      <c r="A5" s="409" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="410"/>
+      <c r="C5" s="411"/>
       <c r="D5" s="235" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="235"/>
-      <c r="F5" s="400" t="s">
+      <c r="F5" s="405" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="401"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="401"/>
-      <c r="J5" s="401"/>
-      <c r="K5" s="401"/>
-      <c r="L5" s="401"/>
-      <c r="M5" s="401"/>
-      <c r="N5" s="401"/>
-      <c r="O5" s="401"/>
-      <c r="P5" s="401"/>
-      <c r="Q5" s="402"/>
-      <c r="T5" s="394" t="s">
+      <c r="G5" s="406"/>
+      <c r="H5" s="406"/>
+      <c r="I5" s="406"/>
+      <c r="J5" s="406"/>
+      <c r="K5" s="406"/>
+      <c r="L5" s="406"/>
+      <c r="M5" s="406"/>
+      <c r="N5" s="406"/>
+      <c r="O5" s="406"/>
+      <c r="P5" s="406"/>
+      <c r="Q5" s="407"/>
+      <c r="T5" s="399" t="s">
         <v>78</v>
       </c>
-      <c r="U5" s="395"/>
-      <c r="V5" s="396"/>
+      <c r="U5" s="400"/>
+      <c r="V5" s="401"/>
     </row>
     <row r="6" spans="1:22" s="229" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="247" t="s">
@@ -11203,7 +11195,7 @@
       <c r="A11" s="102"/>
       <c r="B11" s="112"/>
       <c r="C11" s="131" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D11" s="103"/>
       <c r="E11" s="236"/>
@@ -11490,11 +11482,11 @@
       <c r="O19" s="115"/>
       <c r="P19" s="115"/>
       <c r="Q19" s="120"/>
-      <c r="T19" s="403" t="s">
+      <c r="T19" s="408" t="s">
         <v>93</v>
       </c>
-      <c r="U19" s="403"/>
-      <c r="V19" s="403"/>
+      <c r="U19" s="408"/>
+      <c r="V19" s="408"/>
     </row>
     <row r="20" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="102">
@@ -11612,7 +11604,7 @@
       </c>
       <c r="B23" s="112"/>
       <c r="C23" s="251" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D23" s="122"/>
       <c r="E23" s="237"/>
@@ -11675,7 +11667,7 @@
       </c>
       <c r="B25" s="112"/>
       <c r="C25" s="131" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D25" s="122"/>
       <c r="E25" s="237"/>
@@ -11698,7 +11690,7 @@
       </c>
       <c r="B26" s="112"/>
       <c r="C26" s="132" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D26" s="122"/>
       <c r="E26" s="238"/>
@@ -11762,11 +11754,11 @@
       <c r="Q28" s="120"/>
     </row>
     <row r="29" spans="1:22" s="104" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="391" t="s">
+      <c r="A29" s="396" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="392"/>
-      <c r="C29" s="393"/>
+      <c r="B29" s="397"/>
+      <c r="C29" s="398"/>
       <c r="D29" s="129">
         <f t="shared" ref="D29:P29" si="1">SUM(D7:D28)</f>
         <v>0</v>
@@ -12505,61 +12497,61 @@
   <sheetData>
     <row r="1" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="408" t="s">
+      <c r="B2" s="413" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="409"/>
-      <c r="D2" s="409"/>
-      <c r="E2" s="409"/>
-      <c r="F2" s="409"/>
-      <c r="G2" s="410"/>
-      <c r="H2" s="410"/>
-      <c r="I2" s="410"/>
-      <c r="J2" s="410"/>
-      <c r="K2" s="410"/>
-      <c r="L2" s="410"/>
-      <c r="M2" s="410"/>
-      <c r="N2" s="410"/>
-      <c r="O2" s="410"/>
-      <c r="P2" s="410"/>
-      <c r="Q2" s="410"/>
-      <c r="R2" s="410"/>
-      <c r="S2" s="410"/>
-      <c r="T2" s="410"/>
-      <c r="U2" s="410"/>
-      <c r="V2" s="410"/>
-      <c r="W2" s="410"/>
-      <c r="X2" s="411"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="414"/>
+      <c r="G2" s="415"/>
+      <c r="H2" s="415"/>
+      <c r="I2" s="415"/>
+      <c r="J2" s="415"/>
+      <c r="K2" s="415"/>
+      <c r="L2" s="415"/>
+      <c r="M2" s="415"/>
+      <c r="N2" s="415"/>
+      <c r="O2" s="415"/>
+      <c r="P2" s="415"/>
+      <c r="Q2" s="415"/>
+      <c r="R2" s="415"/>
+      <c r="S2" s="415"/>
+      <c r="T2" s="415"/>
+      <c r="U2" s="415"/>
+      <c r="V2" s="415"/>
+      <c r="W2" s="415"/>
+      <c r="X2" s="416"/>
       <c r="Y2" s="138"/>
     </row>
     <row r="3" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="414" t="s">
+      <c r="B3" s="419" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="415"/>
-      <c r="D3" s="415"/>
-      <c r="E3" s="415"/>
-      <c r="F3" s="416"/>
-      <c r="G3" s="418"/>
-      <c r="H3" s="418"/>
-      <c r="I3" s="418"/>
-      <c r="J3" s="418"/>
-      <c r="K3" s="418"/>
-      <c r="L3" s="412" t="s">
+      <c r="C3" s="420"/>
+      <c r="D3" s="420"/>
+      <c r="E3" s="420"/>
+      <c r="F3" s="421"/>
+      <c r="G3" s="423"/>
+      <c r="H3" s="423"/>
+      <c r="I3" s="423"/>
+      <c r="J3" s="423"/>
+      <c r="K3" s="423"/>
+      <c r="L3" s="417" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="412"/>
-      <c r="N3" s="412"/>
-      <c r="O3" s="412"/>
-      <c r="P3" s="412"/>
-      <c r="Q3" s="412"/>
-      <c r="R3" s="412"/>
-      <c r="S3" s="412"/>
-      <c r="T3" s="412"/>
-      <c r="U3" s="412"/>
-      <c r="V3" s="412"/>
-      <c r="W3" s="412"/>
-      <c r="X3" s="413"/>
+      <c r="M3" s="417"/>
+      <c r="N3" s="417"/>
+      <c r="O3" s="417"/>
+      <c r="P3" s="417"/>
+      <c r="Q3" s="417"/>
+      <c r="R3" s="417"/>
+      <c r="S3" s="417"/>
+      <c r="T3" s="417"/>
+      <c r="U3" s="417"/>
+      <c r="V3" s="417"/>
+      <c r="W3" s="417"/>
+      <c r="X3" s="418"/>
       <c r="Y3" s="139"/>
       <c r="Z3" s="139"/>
       <c r="AA3" s="139"/>
@@ -12570,42 +12562,42 @@
     </row>
     <row r="4" spans="2:31" s="97" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="226"/>
-      <c r="C4" s="407" t="s">
+      <c r="C4" s="412" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="407"/>
-      <c r="E4" s="407"/>
-      <c r="F4" s="407" t="s">
+      <c r="D4" s="412"/>
+      <c r="E4" s="412"/>
+      <c r="F4" s="412" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="407"/>
-      <c r="H4" s="407"/>
-      <c r="I4" s="407" t="s">
+      <c r="G4" s="412"/>
+      <c r="H4" s="412"/>
+      <c r="I4" s="412" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="407"/>
-      <c r="K4" s="407"/>
-      <c r="L4" s="407" t="s">
+      <c r="J4" s="412"/>
+      <c r="K4" s="412"/>
+      <c r="L4" s="412" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="407"/>
-      <c r="N4" s="407"/>
-      <c r="O4" s="407" t="s">
+      <c r="M4" s="412"/>
+      <c r="N4" s="412"/>
+      <c r="O4" s="412" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="407"/>
-      <c r="Q4" s="407"/>
-      <c r="R4" s="407" t="s">
+      <c r="P4" s="412"/>
+      <c r="Q4" s="412"/>
+      <c r="R4" s="412" t="s">
         <v>86</v>
       </c>
-      <c r="S4" s="407"/>
-      <c r="T4" s="407"/>
-      <c r="U4" s="407" t="s">
+      <c r="S4" s="412"/>
+      <c r="T4" s="412"/>
+      <c r="U4" s="412" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="407"/>
-      <c r="W4" s="407"/>
-      <c r="X4" s="417" t="s">
+      <c r="V4" s="412"/>
+      <c r="W4" s="412"/>
+      <c r="X4" s="422" t="s">
         <v>87</v>
       </c>
       <c r="Y4" s="139"/>
@@ -12683,7 +12675,7 @@
       <c r="W5" s="225" t="s">
         <v>81</v>
       </c>
-      <c r="X5" s="417"/>
+      <c r="X5" s="422"/>
       <c r="Y5" s="139"/>
       <c r="Z5" s="139"/>
       <c r="AA5" s="139"/>
@@ -13801,14 +13793,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="397" t="s">
+      <c r="A1" s="402" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
       <c r="G1" s="188"/>
       <c r="H1" s="188"/>
       <c r="I1" s="188"/>
@@ -13822,12 +13814,12 @@
       <c r="Q1" s="188"/>
     </row>
     <row r="2" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="397"/>
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="397"/>
-      <c r="F2" s="397"/>
+      <c r="A2" s="402"/>
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="402"/>
+      <c r="E2" s="402"/>
+      <c r="F2" s="402"/>
       <c r="G2" s="188"/>
       <c r="H2" s="188"/>
       <c r="I2" s="188"/>
@@ -13841,14 +13833,14 @@
       <c r="Q2" s="188"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="398" t="s">
+      <c r="A3" s="403" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="398"/>
-      <c r="C3" s="398"/>
-      <c r="D3" s="398"/>
-      <c r="E3" s="398"/>
-      <c r="F3" s="398"/>
+      <c r="B3" s="403"/>
+      <c r="C3" s="403"/>
+      <c r="D3" s="403"/>
+      <c r="E3" s="403"/>
+      <c r="F3" s="403"/>
       <c r="G3" s="189"/>
       <c r="H3" s="189"/>
       <c r="I3" s="189"/>
@@ -13862,14 +13854,14 @@
       <c r="Q3" s="189"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="399" t="s">
+      <c r="A4" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="399"/>
-      <c r="C4" s="399"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
-      <c r="F4" s="399"/>
+      <c r="B4" s="404"/>
+      <c r="C4" s="404"/>
+      <c r="D4" s="404"/>
+      <c r="E4" s="404"/>
+      <c r="F4" s="404"/>
       <c r="G4" s="187"/>
       <c r="H4" s="187"/>
       <c r="I4" s="187"/>
@@ -13886,17 +13878,17 @@
       <c r="A5" s="215" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="424" t="s">
+      <c r="B5" s="429" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="425"/>
+      <c r="C5" s="430"/>
       <c r="D5" s="216" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="419" t="s">
+      <c r="E5" s="424" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="420"/>
+      <c r="F5" s="425"/>
       <c r="G5" s="187"/>
       <c r="H5" s="187"/>
       <c r="I5" s="187"/>
@@ -13913,17 +13905,17 @@
       <c r="A6" s="217" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="421" t="s">
+      <c r="B6" s="426" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="421"/>
+      <c r="C6" s="426"/>
       <c r="D6" s="218" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="422" t="s">
+      <c r="E6" s="427" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="423"/>
+      <c r="F6" s="428"/>
       <c r="G6" s="187"/>
       <c r="H6" s="187"/>
       <c r="I6" s="187"/>
@@ -14711,94 +14703,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="397" t="s">
+      <c r="A1" s="402" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="397"/>
-      <c r="J1" s="397"/>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
-      <c r="N1" s="397"/>
-      <c r="O1" s="397"/>
-      <c r="P1" s="397"/>
-      <c r="Q1" s="397"/>
-      <c r="R1" s="397"/>
-      <c r="S1" s="397"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="402"/>
+      <c r="H1" s="402"/>
+      <c r="I1" s="402"/>
+      <c r="J1" s="402"/>
+      <c r="K1" s="402"/>
+      <c r="L1" s="402"/>
+      <c r="M1" s="402"/>
+      <c r="N1" s="402"/>
+      <c r="O1" s="402"/>
+      <c r="P1" s="402"/>
+      <c r="Q1" s="402"/>
+      <c r="R1" s="402"/>
+      <c r="S1" s="402"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="397"/>
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="397"/>
-      <c r="F2" s="397"/>
-      <c r="G2" s="397"/>
-      <c r="H2" s="397"/>
-      <c r="I2" s="397"/>
-      <c r="J2" s="397"/>
-      <c r="K2" s="397"/>
-      <c r="L2" s="397"/>
-      <c r="M2" s="397"/>
-      <c r="N2" s="397"/>
-      <c r="O2" s="397"/>
-      <c r="P2" s="397"/>
-      <c r="Q2" s="397"/>
-      <c r="R2" s="397"/>
-      <c r="S2" s="397"/>
+      <c r="A2" s="402"/>
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="402"/>
+      <c r="E2" s="402"/>
+      <c r="F2" s="402"/>
+      <c r="G2" s="402"/>
+      <c r="H2" s="402"/>
+      <c r="I2" s="402"/>
+      <c r="J2" s="402"/>
+      <c r="K2" s="402"/>
+      <c r="L2" s="402"/>
+      <c r="M2" s="402"/>
+      <c r="N2" s="402"/>
+      <c r="O2" s="402"/>
+      <c r="P2" s="402"/>
+      <c r="Q2" s="402"/>
+      <c r="R2" s="402"/>
+      <c r="S2" s="402"/>
     </row>
     <row r="3" spans="1:40" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="398" t="s">
+      <c r="A3" s="403" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="398"/>
-      <c r="C3" s="398"/>
-      <c r="D3" s="398"/>
-      <c r="E3" s="398"/>
-      <c r="F3" s="398"/>
-      <c r="G3" s="398"/>
-      <c r="H3" s="398"/>
-      <c r="I3" s="398"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
-      <c r="N3" s="398"/>
-      <c r="O3" s="398"/>
-      <c r="P3" s="398"/>
-      <c r="Q3" s="398"/>
-      <c r="R3" s="398"/>
-      <c r="S3" s="398"/>
+      <c r="B3" s="403"/>
+      <c r="C3" s="403"/>
+      <c r="D3" s="403"/>
+      <c r="E3" s="403"/>
+      <c r="F3" s="403"/>
+      <c r="G3" s="403"/>
+      <c r="H3" s="403"/>
+      <c r="I3" s="403"/>
+      <c r="J3" s="403"/>
+      <c r="K3" s="403"/>
+      <c r="L3" s="403"/>
+      <c r="M3" s="403"/>
+      <c r="N3" s="403"/>
+      <c r="O3" s="403"/>
+      <c r="P3" s="403"/>
+      <c r="Q3" s="403"/>
+      <c r="R3" s="403"/>
+      <c r="S3" s="403"/>
     </row>
     <row r="4" spans="1:40" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="399" t="s">
+      <c r="A4" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="399"/>
-      <c r="C4" s="399"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
-      <c r="F4" s="399"/>
-      <c r="G4" s="399"/>
-      <c r="H4" s="399"/>
-      <c r="I4" s="399"/>
-      <c r="J4" s="399"/>
-      <c r="K4" s="399"/>
-      <c r="L4" s="399"/>
-      <c r="M4" s="399"/>
-      <c r="N4" s="399"/>
-      <c r="O4" s="399"/>
-      <c r="P4" s="399"/>
-      <c r="Q4" s="399"/>
-      <c r="R4" s="399"/>
-      <c r="S4" s="399"/>
+      <c r="B4" s="404"/>
+      <c r="C4" s="404"/>
+      <c r="D4" s="404"/>
+      <c r="E4" s="404"/>
+      <c r="F4" s="404"/>
+      <c r="G4" s="404"/>
+      <c r="H4" s="404"/>
+      <c r="I4" s="404"/>
+      <c r="J4" s="404"/>
+      <c r="K4" s="404"/>
+      <c r="L4" s="404"/>
+      <c r="M4" s="404"/>
+      <c r="N4" s="404"/>
+      <c r="O4" s="404"/>
+      <c r="P4" s="404"/>
+      <c r="Q4" s="404"/>
+      <c r="R4" s="404"/>
+      <c r="S4" s="404"/>
     </row>
     <row r="5" spans="1:40" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="262"/>
@@ -14822,9 +14814,9 @@
       <c r="S5" s="260"/>
       <c r="T5" s="263"/>
       <c r="U5" s="263"/>
-      <c r="V5" s="399"/>
-      <c r="W5" s="399"/>
-      <c r="X5" s="399"/>
+      <c r="V5" s="404"/>
+      <c r="W5" s="404"/>
+      <c r="X5" s="404"/>
       <c r="Y5" s="263"/>
       <c r="Z5" s="263"/>
       <c r="AA5" s="263"/>
@@ -15114,9 +15106,9 @@
       <c r="S10" s="258"/>
       <c r="T10" s="47"/>
       <c r="U10" s="47"/>
-      <c r="V10" s="426"/>
-      <c r="W10" s="426"/>
-      <c r="X10" s="426"/>
+      <c r="V10" s="431"/>
+      <c r="W10" s="431"/>
+      <c r="X10" s="431"/>
       <c r="Y10" s="47"/>
       <c r="Z10" s="47"/>
       <c r="AA10" s="47"/>
@@ -15281,9 +15273,9 @@
       <c r="S13" s="258"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
-      <c r="V13" s="426"/>
-      <c r="W13" s="426"/>
-      <c r="X13" s="426"/>
+      <c r="V13" s="431"/>
+      <c r="W13" s="431"/>
+      <c r="X13" s="431"/>
       <c r="Y13" s="47"/>
       <c r="Z13" s="47"/>
       <c r="AA13" s="47"/>
@@ -15971,9 +15963,9 @@
       <c r="AN27" s="47"/>
     </row>
     <row r="28" spans="1:40" s="104" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="427"/>
-      <c r="B28" s="427"/>
-      <c r="C28" s="427"/>
+      <c r="A28" s="432"/>
+      <c r="B28" s="432"/>
+      <c r="C28" s="432"/>
       <c r="D28" s="273"/>
       <c r="E28" s="273"/>
       <c r="F28" s="273"/>
@@ -17390,29 +17382,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="429" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="430"/>
-      <c r="C1" s="431"/>
-      <c r="D1" s="335"/>
-      <c r="F1" s="379" t="s">
+      <c r="A1" s="434" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="435"/>
+      <c r="C1" s="436"/>
+      <c r="D1" s="333"/>
+      <c r="F1" s="384" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="380"/>
-      <c r="H1" s="381"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="386"/>
     </row>
     <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="326" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="329" t="s">
+      <c r="C2" s="327" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="326"/>
+      <c r="D2" s="324"/>
       <c r="F2" s="95" t="s">
         <v>10</v>
       </c>
@@ -17424,16 +17416,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="330" t="s">
+      <c r="A3" s="328" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="321" t="s">
+      <c r="B3" s="319" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="331">
+      <c r="C3" s="329">
         <v>2050</v>
       </c>
-      <c r="D3" s="327"/>
+      <c r="D3" s="325"/>
       <c r="F3" s="95" t="s">
         <v>71</v>
       </c>
@@ -17445,16 +17437,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="330" t="s">
+      <c r="A4" s="328" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="321" t="s">
+      <c r="B4" s="319" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="331">
+      <c r="C4" s="329">
         <v>8000</v>
       </c>
-      <c r="D4" s="327"/>
+      <c r="D4" s="325"/>
       <c r="F4" s="101" t="s">
         <v>115</v>
       </c>
@@ -17466,16 +17458,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="330" t="s">
+      <c r="A5" s="328" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="321" t="s">
+      <c r="B5" s="319" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="331">
+      <c r="C5" s="329">
         <v>2000</v>
       </c>
-      <c r="D5" s="327"/>
+      <c r="D5" s="325"/>
       <c r="F5" s="219" t="s">
         <v>117</v>
       </c>
@@ -17487,16 +17479,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="330" t="s">
+      <c r="A6" s="328" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="321" t="s">
+      <c r="B6" s="319" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="331">
+      <c r="C6" s="329">
         <v>4250</v>
       </c>
-      <c r="D6" s="327"/>
+      <c r="D6" s="325"/>
       <c r="F6" s="95" t="s">
         <v>120</v>
       </c>
@@ -17508,16 +17500,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="330" t="s">
+      <c r="A7" s="328" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="321" t="s">
+      <c r="B7" s="319" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="331">
+      <c r="C7" s="329">
         <v>1900</v>
       </c>
-      <c r="D7" s="327"/>
+      <c r="D7" s="325"/>
       <c r="F7" s="95" t="s">
         <v>122</v>
       </c>
@@ -17529,16 +17521,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="330" t="s">
+      <c r="A8" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="321" t="s">
+      <c r="B8" s="319" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="331">
+      <c r="C8" s="329">
         <v>750</v>
       </c>
-      <c r="D8" s="327"/>
+      <c r="D8" s="325"/>
       <c r="F8" s="95" t="s">
         <v>125</v>
       </c>
@@ -17550,37 +17542,37 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="330" t="s">
+      <c r="A9" s="328" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="321" t="s">
+      <c r="B9" s="319" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="331">
+      <c r="C9" s="329">
         <v>3152</v>
       </c>
-      <c r="D9" s="327"/>
+      <c r="D9" s="325"/>
       <c r="F9" s="95" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G9" s="125" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H9" s="126">
         <v>4650</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="330" t="s">
+      <c r="A10" s="328" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="322" t="s">
+      <c r="B10" s="320" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="331">
+      <c r="C10" s="329">
         <v>5023</v>
       </c>
-      <c r="D10" s="327"/>
+      <c r="D10" s="325"/>
       <c r="F10" s="95" t="s">
         <v>129</v>
       </c>
@@ -17592,16 +17584,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="332" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="321" t="s">
+      <c r="A11" s="330" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="319" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="329">
         <v>42160</v>
       </c>
-      <c r="D11" s="327"/>
+      <c r="D11" s="325"/>
       <c r="F11" s="101" t="s">
         <v>130</v>
       </c>
@@ -17613,227 +17605,227 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="332" t="s">
+      <c r="A12" s="330" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="321" t="s">
+      <c r="B12" s="319" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="331">
+      <c r="C12" s="329">
         <v>1500</v>
       </c>
-      <c r="D12" s="327"/>
+      <c r="D12" s="325"/>
       <c r="F12" s="128"/>
       <c r="G12" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="324">
+      <c r="H12" s="322">
         <v>47704</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="332" t="s">
+      <c r="A13" s="330" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="321" t="s">
+      <c r="B13" s="319" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="331">
+      <c r="C13" s="329">
         <v>750</v>
       </c>
-      <c r="D13" s="327"/>
-      <c r="F13" s="319" t="s">
+      <c r="D13" s="325"/>
+      <c r="F13" s="317" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="319" t="s">
+      <c r="G13" s="317" t="s">
         <v>177</v>
       </c>
-      <c r="H13" s="319">
+      <c r="H13" s="317">
         <v>1500</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="332" t="s">
-        <v>227</v>
-      </c>
-      <c r="B14" s="321">
+      <c r="A14" s="330" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="319">
         <v>430</v>
       </c>
-      <c r="C14" s="331">
+      <c r="C14" s="329">
         <v>82130</v>
       </c>
-      <c r="D14" s="327"/>
-      <c r="F14" s="319" t="s">
+      <c r="D14" s="325"/>
+      <c r="F14" s="317" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="319" t="s">
+      <c r="G14" s="317" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="319">
+      <c r="H14" s="317">
         <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="332" t="s">
+      <c r="A15" s="330" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="321" t="s">
+      <c r="B15" s="319" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="331">
+      <c r="C15" s="329">
         <v>2295</v>
       </c>
-      <c r="D15" s="327"/>
-      <c r="F15" s="319" t="s">
+      <c r="D15" s="325"/>
+      <c r="F15" s="317" t="s">
         <v>183</v>
       </c>
-      <c r="G15" s="319" t="s">
+      <c r="G15" s="317" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="325">
+      <c r="H15" s="323">
         <v>4680</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="333" t="s">
+      <c r="A16" s="331" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="321" t="s">
+      <c r="B16" s="319" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="331">
+      <c r="C16" s="329">
         <v>2546</v>
       </c>
-      <c r="D16" s="327"/>
-      <c r="F16" s="319" t="s">
+      <c r="D16" s="325"/>
+      <c r="F16" s="317" t="s">
         <v>184</v>
       </c>
-      <c r="G16" s="319" t="s">
+      <c r="G16" s="317" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="325">
+      <c r="H16" s="323">
         <v>5625</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="334" t="s">
+      <c r="A17" s="332" t="s">
         <v>194</v>
       </c>
-      <c r="B17" s="321" t="s">
+      <c r="B17" s="319" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="331">
+      <c r="C17" s="329">
         <v>2673</v>
       </c>
-      <c r="D17" s="327"/>
-      <c r="F17" s="320" t="s">
+      <c r="D17" s="325"/>
+      <c r="F17" s="318" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="319" t="s">
+      <c r="G17" s="317" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" s="317">
+        <v>101230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="332" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="321" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="329">
+        <v>5706</v>
+      </c>
+      <c r="D18" s="325"/>
+      <c r="F18" s="318" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="317" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18" s="317">
+        <v>90152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="330" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="319" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="329">
+        <v>2437</v>
+      </c>
+      <c r="D19" s="325"/>
+      <c r="F19" s="318" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" s="317" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" s="317">
+        <v>72007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="330" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="319" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="329">
+        <v>1167</v>
+      </c>
+      <c r="F20" s="317" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" s="317" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="317">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="330" t="s">
         <v>218</v>
       </c>
-      <c r="H17" s="319">
-        <v>101230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="334" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="323" t="s">
+      <c r="B21" s="319" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="331">
-        <v>5706</v>
-      </c>
-      <c r="D18" s="327"/>
-      <c r="F18" s="320" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18" s="319" t="s">
-        <v>221</v>
-      </c>
-      <c r="H18" s="319">
-        <v>90152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="332" t="s">
-        <v>213</v>
-      </c>
-      <c r="B19" s="321" t="s">
-        <v>214</v>
-      </c>
-      <c r="C19" s="331">
-        <v>2437</v>
-      </c>
-      <c r="D19" s="327"/>
-      <c r="F19" s="320" t="s">
-        <v>188</v>
-      </c>
-      <c r="G19" s="319" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="319">
-        <v>72007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="332" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="321" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="331">
-        <v>1167</v>
-      </c>
-      <c r="F20" s="319" t="s">
-        <v>189</v>
-      </c>
-      <c r="G20" s="319" t="s">
+      <c r="C21" s="329">
+        <v>252</v>
+      </c>
+      <c r="F21" s="317" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" s="317" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="319">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="332" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="321" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="331">
-        <v>252</v>
-      </c>
-      <c r="F21" s="319" t="s">
-        <v>191</v>
-      </c>
-      <c r="G21" s="319" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="319">
+      <c r="H21" s="317">
         <v>2546</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="432" t="s">
+      <c r="A22" s="437" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="433"/>
-      <c r="C22" s="336">
+      <c r="B22" s="438"/>
+      <c r="C22" s="334">
         <f>SUM(C3:C21)</f>
         <v>170741</v>
       </c>
-      <c r="F22" s="319" t="s">
-        <v>213</v>
-      </c>
-      <c r="G22" s="319" t="s">
-        <v>214</v>
-      </c>
-      <c r="H22" s="319">
+      <c r="F22" s="317" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="317" t="s">
+        <v>207</v>
+      </c>
+      <c r="H22" s="317">
         <v>2437</v>
       </c>
     </row>
@@ -17841,13 +17833,13 @@
       <c r="A23" s="94"/>
       <c r="B23" s="94"/>
       <c r="C23" s="94"/>
-      <c r="F23" s="319" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="319" t="s">
-        <v>214</v>
-      </c>
-      <c r="H23" s="319">
+      <c r="F23" s="317" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="317" t="s">
+        <v>207</v>
+      </c>
+      <c r="H23" s="317">
         <v>1167</v>
       </c>
     </row>
@@ -17855,89 +17847,89 @@
       <c r="A24" s="94"/>
       <c r="B24" s="94"/>
       <c r="C24" s="94"/>
-      <c r="F24" s="319"/>
-      <c r="G24" s="319"/>
-      <c r="H24" s="319"/>
+      <c r="F24" s="317"/>
+      <c r="G24" s="317"/>
+      <c r="H24" s="317"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="94"/>
       <c r="B25" s="94"/>
       <c r="C25" s="94"/>
-      <c r="F25" s="319"/>
-      <c r="G25" s="319"/>
-      <c r="H25" s="319"/>
+      <c r="F25" s="317"/>
+      <c r="G25" s="317"/>
+      <c r="H25" s="317"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="94"/>
       <c r="B26" s="94"/>
       <c r="C26" s="94"/>
-      <c r="F26" s="319"/>
-      <c r="G26" s="319"/>
-      <c r="H26" s="319"/>
+      <c r="F26" s="317"/>
+      <c r="G26" s="317"/>
+      <c r="H26" s="317"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="94"/>
       <c r="B27" s="94"/>
       <c r="C27" s="94"/>
-      <c r="F27" s="319"/>
-      <c r="G27" s="319"/>
-      <c r="H27" s="319"/>
+      <c r="F27" s="317"/>
+      <c r="G27" s="317"/>
+      <c r="H27" s="317"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="94"/>
       <c r="B28" s="94"/>
       <c r="C28" s="94"/>
-      <c r="F28" s="319"/>
-      <c r="G28" s="319"/>
-      <c r="H28" s="319"/>
+      <c r="F28" s="317"/>
+      <c r="G28" s="317"/>
+      <c r="H28" s="317"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="94"/>
       <c r="B29" s="94"/>
       <c r="C29" s="94"/>
-      <c r="F29" s="319"/>
-      <c r="G29" s="319"/>
-      <c r="H29" s="319"/>
+      <c r="F29" s="317"/>
+      <c r="G29" s="317"/>
+      <c r="H29" s="317"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="94"/>
       <c r="B30" s="94"/>
       <c r="C30" s="94"/>
-      <c r="F30" s="319"/>
-      <c r="G30" s="319"/>
-      <c r="H30" s="319"/>
+      <c r="F30" s="317"/>
+      <c r="G30" s="317"/>
+      <c r="H30" s="317"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="315"/>
-      <c r="B31" s="316"/>
-      <c r="C31" s="315"/>
-      <c r="F31" s="382" t="s">
+      <c r="A31" s="313"/>
+      <c r="B31" s="314"/>
+      <c r="C31" s="313"/>
+      <c r="F31" s="387" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="382"/>
-      <c r="H31" s="341">
+      <c r="G31" s="387"/>
+      <c r="H31" s="339">
         <f>SUM(H3:H30)</f>
         <v>363868</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="315"/>
-      <c r="B32" s="316"/>
-      <c r="C32" s="315"/>
+      <c r="A32" s="313"/>
+      <c r="B32" s="314"/>
+      <c r="C32" s="313"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="339"/>
-      <c r="G32" s="340"/>
-      <c r="H32" s="339"/>
+      <c r="F32" s="337"/>
+      <c r="G32" s="338"/>
+      <c r="H32" s="337"/>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="315"/>
-      <c r="B33" s="317"/>
-      <c r="C33" s="315"/>
+      <c r="A33" s="313"/>
+      <c r="B33" s="315"/>
+      <c r="C33" s="313"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="339"/>
-      <c r="G33" s="340"/>
-      <c r="H33" s="339"/>
+      <c r="F33" s="337"/>
+      <c r="G33" s="338"/>
+      <c r="H33" s="337"/>
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -17945,9 +17937,9 @@
       <c r="B34" s="94"/>
       <c r="C34" s="94"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="339"/>
-      <c r="G34" s="340"/>
-      <c r="H34" s="339"/>
+      <c r="F34" s="337"/>
+      <c r="G34" s="338"/>
+      <c r="H34" s="337"/>
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -17955,9 +17947,9 @@
       <c r="B35" s="94"/>
       <c r="C35" s="94"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="338"/>
-      <c r="G35" s="338"/>
-      <c r="H35" s="338"/>
+      <c r="F35" s="336"/>
+      <c r="G35" s="336"/>
+      <c r="H35" s="336"/>
       <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -17965,9 +17957,9 @@
       <c r="B36" s="94"/>
       <c r="C36" s="94"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="338"/>
-      <c r="G36" s="338"/>
-      <c r="H36" s="338"/>
+      <c r="F36" s="336"/>
+      <c r="G36" s="336"/>
+      <c r="H36" s="336"/>
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -17975,9 +17967,9 @@
       <c r="B37" s="94"/>
       <c r="C37" s="94"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="338"/>
-      <c r="G37" s="338"/>
-      <c r="H37" s="338"/>
+      <c r="F37" s="336"/>
+      <c r="G37" s="336"/>
+      <c r="H37" s="336"/>
       <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -17985,9 +17977,9 @@
       <c r="B38" s="94"/>
       <c r="C38" s="94"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="338"/>
-      <c r="G38" s="338"/>
-      <c r="H38" s="338"/>
+      <c r="F38" s="336"/>
+      <c r="G38" s="336"/>
+      <c r="H38" s="336"/>
       <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -17995,9 +17987,9 @@
       <c r="B39" s="94"/>
       <c r="C39" s="94"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="338"/>
-      <c r="G39" s="338"/>
-      <c r="H39" s="338"/>
+      <c r="F39" s="336"/>
+      <c r="G39" s="336"/>
+      <c r="H39" s="336"/>
       <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -18005,9 +17997,9 @@
       <c r="B40" s="94"/>
       <c r="C40" s="94"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="338"/>
-      <c r="G40" s="338"/>
-      <c r="H40" s="338"/>
+      <c r="F40" s="336"/>
+      <c r="G40" s="336"/>
+      <c r="H40" s="336"/>
       <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -18015,26 +18007,26 @@
       <c r="B41" s="94"/>
       <c r="C41" s="94"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="338"/>
-      <c r="G41" s="338"/>
-      <c r="H41" s="338"/>
+      <c r="F41" s="336"/>
+      <c r="G41" s="336"/>
+      <c r="H41" s="336"/>
       <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="428"/>
-      <c r="B42" s="428"/>
+      <c r="A42" s="433"/>
+      <c r="B42" s="433"/>
       <c r="C42" s="8"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="338"/>
-      <c r="G42" s="338"/>
-      <c r="H42" s="338"/>
+      <c r="F42" s="336"/>
+      <c r="G42" s="336"/>
+      <c r="H42" s="336"/>
       <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
-      <c r="F43" s="378"/>
-      <c r="G43" s="378"/>
-      <c r="H43" s="338"/>
+      <c r="F43" s="383"/>
+      <c r="G43" s="383"/>
+      <c r="H43" s="336"/>
       <c r="I43" s="9"/>
     </row>
   </sheetData>
@@ -18057,269 +18049,269 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="436" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="436" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="436" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="436"/>
+    <col min="1" max="1" width="25.28515625" style="341" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="341" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="341" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="341"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="440" t="s">
+      <c r="A1" s="441" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="440"/>
-      <c r="C1" s="440"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="435" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="435"/>
-      <c r="C2" s="435"/>
+      <c r="A2" s="439" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="439"/>
+      <c r="C2" s="439"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="434" t="s">
+      <c r="A3" s="340" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="434" t="s">
+      <c r="B3" s="340" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="434" t="s">
+      <c r="C3" s="340" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="437" t="s">
+      <c r="A4" s="342" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="437" t="s">
+      <c r="B4" s="342" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="438">
+      <c r="C4" s="343">
         <v>2050</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="437" t="s">
+      <c r="A5" s="342" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="437" t="s">
+      <c r="B5" s="342" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="438">
+      <c r="C5" s="343">
         <v>4250</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="437" t="s">
+      <c r="A6" s="342" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="342" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="438">
+      <c r="C6" s="343">
         <v>1900</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="437" t="s">
+      <c r="A7" s="342" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="437" t="s">
+      <c r="B7" s="342" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="438">
+      <c r="C7" s="343">
         <v>8000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="437" t="s">
+      <c r="A8" s="342" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="437" t="s">
+      <c r="B8" s="342" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="438">
+      <c r="C8" s="343">
         <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="437" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="437" t="s">
+      <c r="A9" s="342" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="342" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="438">
+      <c r="C9" s="343">
         <v>5706</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="437" t="s">
+      <c r="A10" s="342" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="437" t="s">
+      <c r="B10" s="342" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="438">
+      <c r="C10" s="343">
         <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="437" t="s">
+      <c r="A11" s="342" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="437" t="s">
+      <c r="B11" s="342" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="438">
+      <c r="C11" s="343">
         <v>750</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="437" t="s">
-        <v>234</v>
-      </c>
-      <c r="B12" s="437" t="s">
+      <c r="A12" s="342" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="342" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="438">
+      <c r="C12" s="343">
         <v>44185</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="437" t="s">
+      <c r="A13" s="342" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="437" t="s">
+      <c r="B13" s="342" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="438">
+      <c r="C13" s="343">
         <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="437" t="s">
+      <c r="A14" s="342" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="437" t="s">
+      <c r="B14" s="342" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="438">
+      <c r="C14" s="343">
         <v>3152</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="437" t="s">
+      <c r="A15" s="342" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="437" t="s">
+      <c r="B15" s="342" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="438">
+      <c r="C15" s="343">
         <v>5023</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="437" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="437" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="438">
+      <c r="A16" s="342" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="342" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="343">
         <v>3600</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="437" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" s="437" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="438">
+      <c r="A17" s="342" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="342" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="343">
         <v>2437</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="437" t="s">
+      <c r="A18" s="342" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="437" t="s">
+      <c r="B18" s="342" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="438">
+      <c r="C18" s="343">
         <v>2295</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="437" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="437" t="s">
-        <v>214</v>
-      </c>
-      <c r="C19" s="438">
+      <c r="A19" s="342" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="342" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="343">
         <v>1167</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="437" t="s">
+      <c r="A20" s="342" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="437" t="s">
+      <c r="B20" s="342" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="438">
+      <c r="C20" s="343">
         <v>2546</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="437" t="s">
+      <c r="A21" s="342" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="437" t="s">
+      <c r="B21" s="342" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="438">
+      <c r="C21" s="343">
         <v>2673</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="437" t="s">
-        <v>225</v>
-      </c>
-      <c r="B22" s="437" t="s">
+      <c r="A22" s="342" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="342" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="438">
+      <c r="C22" s="343">
         <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="437" t="s">
-        <v>231</v>
-      </c>
-      <c r="B23" s="437" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" s="438">
+      <c r="A23" s="342" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="342" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="343">
         <v>82130</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="441" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" s="441"/>
-      <c r="C24" s="439">
+      <c r="A24" s="440" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="440"/>
+      <c r="C24" s="344">
         <f>SUM(C4:C23)</f>
         <v>176366</v>
       </c>
